--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airuisi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5AF9A3-31DE-4B27-A72F-AA725007AFE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FF394-9CC7-48C6-95F7-C50A0C0BA1D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="60" windowWidth="19272" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection sqref="A1:Q4"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2106,7 @@
       <c r="P16" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="29" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="P17" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       <c r="P18" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="29" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="P19" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -4556,56 +4556,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -4617,6 +4567,56 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FF394-9CC7-48C6-95F7-C50A0C0BA1D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC2939-A5B7-4C2A-B312-41F41CF6C1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="299">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,6 +950,42 @@
     <t>1、还没有确定分组的同学请尽快组队，关于组队有任何问题请与石胡森: husencd@mail.ustc.edu.cn联系
 2、请按照所属组别，发送大作业至对应的邮箱，红色字体代表被安排，空缺位置可继续占坑
 3、分组可能会有所变动，请发大作业前查看一下本文档，确定最终分组，谢谢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18168153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18219090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王程鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 徐梦娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜天宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆家尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟德普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗子源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯润森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1623,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2271,11 +2307,19 @@
       <c r="K21" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="18"/>
+      <c r="M21" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
@@ -2302,11 +2346,19 @@
         <v>242</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="18"/>
+      <c r="M22" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -2333,11 +2385,19 @@
         <v>280</v>
       </c>
       <c r="K23" s="28"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
@@ -2362,107 +2422,229 @@
         <v>237</v>
       </c>
       <c r="K24" s="28"/>
-      <c r="M24" s="35"/>
+      <c r="M24" s="32" t="s">
+        <v>257</v>
+      </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="P24" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="28"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="29"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="28"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="28"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="28"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="28"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="28"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="G25" s="41" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="G31" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="M25" s="41" t="s">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
+      <c r="M31" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-    </row>
-    <row r="28" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="47"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C29" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+    </row>
+    <row r="34" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="47"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:Q4"/>
-    <mergeCell ref="A25:E28"/>
-    <mergeCell ref="G25:K28"/>
-    <mergeCell ref="M25:Q28"/>
+    <mergeCell ref="A31:E34"/>
+    <mergeCell ref="G31:K34"/>
+    <mergeCell ref="M31:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4556,6 +4738,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -4567,56 +4799,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC2939-A5B7-4C2A-B312-41F41CF6C1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41033E6A-B32E-40BC-86C2-F0391AB485A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="301">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 徐梦娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杜天宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,6 +982,18 @@
   </si>
   <si>
     <t>冯润森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐梦娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18232054</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1315,6 +1323,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2065,10 +2076,12 @@
       <c r="E14" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H14" s="13"/>
+      <c r="G14" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>300</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
         <v>94</v>
@@ -2315,7 +2328,7 @@
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="29" t="s">
         <v>117</v>
@@ -2347,14 +2360,14 @@
       </c>
       <c r="K22" s="28"/>
       <c r="M22" s="27" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>291</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="29" t="s">
         <v>121</v>
@@ -2386,14 +2399,14 @@
       </c>
       <c r="K23" s="28"/>
       <c r="M23" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="29" t="s">
         <v>33</v>
@@ -2428,7 +2441,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="29" t="s">
         <v>107</v>
@@ -4738,56 +4751,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -4799,6 +4762,56 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41033E6A-B32E-40BC-86C2-F0391AB485A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0802DB1-2EA4-4D0A-AAAB-706AE6AC5FB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="313">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,6 +994,54 @@
   </si>
   <si>
     <t>SA18232054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18006161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于大洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷毓培</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王裕鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李攀登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18006077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18006048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18006169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚晓磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯愚桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林嵘灏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余岸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1323,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2124,7 @@
       <c r="G14" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="16" t="s">
         <v>300</v>
       </c>
       <c r="I14" s="15"/>
@@ -2202,10 +2247,10 @@
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19" t="s">
@@ -2242,11 +2287,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>244</v>
+      <c r="A19" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="20" t="s">
@@ -2271,10 +2313,12 @@
         <v>161</v>
       </c>
       <c r="O19" s="18"/>
-      <c r="P19" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q19" s="29"/>
+      <c r="P19" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -2472,18 +2516,38 @@
         <v>157</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="16"/>
+      <c r="D26" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="28"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="18"/>
+      <c r="J26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>306</v>
+      </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
@@ -2495,16 +2559,32 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="29"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="28"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="18"/>
+      <c r="J27" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="O27" s="18"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
@@ -2516,16 +2596,30 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="29"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="32" t="s">
+        <v>257</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="28"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="O28" s="18"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="29"/>
+      <c r="P28" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
@@ -2535,15 +2629,23 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="29"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="32" t="s">
+        <v>257</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="K29" s="28"/>
-      <c r="M29" s="32"/>
+      <c r="M29" s="32" t="s">
+        <v>257</v>
+      </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="15"/>
+      <c r="P29" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
@@ -4751,6 +4853,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -4762,56 +4914,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0802DB1-2EA4-4D0A-AAAB-706AE6AC5FB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B62FB3-30E1-4772-9F17-98BAA4ADBBEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="320">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,6 +1042,33 @@
   </si>
   <si>
     <t>余岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> BC18010018</t>
+  </si>
+  <si>
+    <t>胡鹤臻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>席茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA18023023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2654,112 +2681,225 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="29"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="16"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="28"/>
       <c r="M30" s="32"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
-      <c r="P30" s="15"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="29"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="29"/>
+      <c r="G31" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="28"/>
+      <c r="M31" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="18"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="29"/>
+      <c r="G32" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="28"/>
+      <c r="M32" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="18"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="29"/>
+      <c r="G33" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="28"/>
+      <c r="M33" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="18"/>
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="28"/>
+      <c r="M34" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="18"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="29"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="28"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="G31" s="41" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
-      <c r="M31" s="41" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
+      <c r="M36" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
-    </row>
-    <row r="34" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C35" s="11"/>
-    </row>
-    <row r="40" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="43"/>
+    </row>
+    <row r="39" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="45" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:Q4"/>
-    <mergeCell ref="A31:E34"/>
-    <mergeCell ref="G31:K34"/>
-    <mergeCell ref="M31:Q34"/>
+    <mergeCell ref="A36:E39"/>
+    <mergeCell ref="G36:K39"/>
+    <mergeCell ref="M36:Q39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4853,56 +4993,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -4914,6 +5004,56 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B62FB3-30E1-4772-9F17-98BAA4ADBBEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2C76A-F5CB-427C-9497-7C3CA73751D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="321">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,6 +1069,10 @@
   </si>
   <si>
     <t>SA18023023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡兴蔚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2623,8 +2627,8 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="29"/>
-      <c r="G28" s="32" t="s">
-        <v>257</v>
+      <c r="G28" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="18"/>
@@ -4993,6 +4997,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -5004,56 +5058,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2C76A-F5CB-427C-9497-7C3CA73751D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACCE86B-B1A6-40A4-AB9E-13E6128B565B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="321">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2152,12 +2152,7 @@
       <c r="E14" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>300</v>
-      </c>
+      <c r="G14" s="32"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
         <v>94</v>
@@ -2333,10 +2328,12 @@
         <v>131</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" s="28"/>
+      <c r="J19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="M19" s="27" t="s">
         <v>271</v>
       </c>
@@ -2510,10 +2507,12 @@
         <v>237</v>
       </c>
       <c r="K24" s="28"/>
-      <c r="M24" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="N24" s="18"/>
+      <c r="M24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="O24" s="18"/>
       <c r="P24" s="15" t="s">
         <v>297</v>
@@ -2627,7 +2626,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="29"/>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="32" t="s">
         <v>320</v>
       </c>
       <c r="H28" s="16"/>
@@ -2666,9 +2665,11 @@
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="K29" s="28"/>
+        <v>299</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>300</v>
+      </c>
       <c r="M29" s="32" t="s">
         <v>257</v>
       </c>
@@ -4997,56 +4998,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -5058,6 +5009,56 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACCE86B-B1A6-40A4-AB9E-13E6128B565B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB9F43-EC52-4EF6-B3F3-AEF7244A25D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -4998,6 +4998,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -5009,56 +5059,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB9F43-EC52-4EF6-B3F3-AEF7244A25D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A8C335-02BE-4D0A-BF45-850FBBFDFD08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73E85B-2B9E-41C0-8FB2-8B93DC8693E1}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -2916,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3300,9 @@
       <c r="L11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>6</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -3957,7 +3959,9 @@
       <c r="C31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -4532,7 +4536,7 @@
         <v>204</v>
       </c>
       <c r="D48" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4998,56 +5002,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -5059,6 +5013,56 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A8C335-02BE-4D0A-BF45-850FBBFDFD08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E2BFF-16D1-4372-AC17-23A8DA5B9740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="320">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,9 +129,6 @@
     <t>BA18048009</t>
   </si>
   <si>
-    <t>彭军博</t>
-  </si>
-  <si>
     <t>SA18006054</t>
   </si>
   <si>
@@ -688,9 +685,6 @@
   </si>
   <si>
     <t>SA18023028</t>
-  </si>
-  <si>
-    <t>郑浩</t>
   </si>
   <si>
     <t>SA18231029</t>
@@ -1073,6 +1067,10 @@
   </si>
   <si>
     <t>蔡兴蔚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭军博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1168,6 +1166,21 @@
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1273,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1367,6 +1380,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1402,6 +1418,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,246 +1786,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="A1" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O6" s="37"/>
       <c r="P6" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2025,151 +2047,151 @@
     </row>
     <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="28"/>
       <c r="M11" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K12" s="28"/>
       <c r="M12" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="28"/>
       <c r="M13" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="32"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="28"/>
       <c r="M14" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2191,81 +2213,81 @@
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>25</v>
@@ -2273,79 +2295,79 @@
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E19" s="31"/>
       <c r="G19" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2367,144 +2389,144 @@
     </row>
     <row r="21" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K22" s="28"/>
       <c r="M22" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K23" s="28"/>
       <c r="M23" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K24" s="28"/>
       <c r="M24" s="30" t="s">
@@ -2515,10 +2537,10 @@
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
@@ -2540,143 +2562,143 @@
     </row>
     <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M26" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="N26" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>306</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="29"/>
       <c r="G27" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="29"/>
       <c r="G28" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="18"/>
       <c r="J28" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="29"/>
       <c r="G29" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="29"/>
     </row>
@@ -2699,25 +2721,25 @@
     </row>
     <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="29"/>
       <c r="G31" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="20"/>
       <c r="K31" s="28"/>
       <c r="M31" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="18"/>
@@ -2725,23 +2747,23 @@
     </row>
     <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="29"/>
       <c r="G32" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="20"/>
       <c r="K32" s="28"/>
       <c r="M32" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N32" s="16"/>
       <c r="O32" s="18"/>
@@ -2749,23 +2771,23 @@
     </row>
     <row r="33" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="29"/>
       <c r="G33" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="20"/>
       <c r="K33" s="28"/>
       <c r="M33" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="18"/>
@@ -2773,21 +2795,21 @@
     </row>
     <row r="34" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="20"/>
       <c r="K34" s="28"/>
       <c r="M34" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" s="18"/>
@@ -2811,78 +2833,78 @@
       <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="G36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="43"/>
-      <c r="M36" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="G36" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="M36" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="43"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="44"/>
     </row>
     <row r="39" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="47"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C40" s="11"/>
@@ -2916,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2934,30 +2956,30 @@
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="28.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2985,17 +3007,17 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="39" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -3015,25 +3037,31 @@
       <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="52">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="3">
         <v>60</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="49"/>
       <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>8</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="39">
+        <v>10</v>
+      </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
@@ -3044,8 +3072,8 @@
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
+      <c r="C4" s="53" t="s">
+        <v>319</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3055,17 +3083,19 @@
       <c r="I4" s="3">
         <v>61</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>8</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="39">
+        <v>10</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
@@ -3074,32 +3104,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="3">
         <v>62</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="49"/>
+      <c r="L5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>9</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="39">
+        <v>10</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
@@ -3108,32 +3142,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="3">
         <v>63</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="M6" s="2">
         <v>6</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="39">
+        <v>10</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
@@ -3142,32 +3180,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3">
         <v>64</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="2">
         <v>7</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="39">
+        <v>10</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
@@ -3176,10 +3218,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -3191,17 +3233,19 @@
       <c r="I8" s="3">
         <v>65</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="39">
+        <v>8</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
@@ -3210,32 +3254,36 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="5">
         <v>9</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="3">
         <v>66</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="2">
         <v>9</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="39">
+        <v>10</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
@@ -3244,32 +3292,36 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="3">
         <v>67</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="2">
         <v>9</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="39">
+        <v>10</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
@@ -3278,32 +3330,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="3">
         <v>68</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="2">
         <v>6</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="39">
+        <v>7</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
@@ -3312,30 +3368,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="3">
         <v>69</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
@@ -3344,32 +3402,36 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="3">
         <v>70</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="2">
         <v>7</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="39">
+        <v>8</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
@@ -3378,32 +3440,36 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>9</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="3">
         <v>71</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="39">
+        <v>9</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
@@ -3412,32 +3478,34 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>9.5</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="3">
         <v>72</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="M15" s="2">
         <v>6</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
@@ -3446,32 +3514,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="5">
         <v>9</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="3">
         <v>73</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="M16" s="2">
         <v>7</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
@@ -3480,32 +3550,36 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="5">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="3">
         <v>74</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="2">
         <v>6</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="39">
+        <v>10</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
@@ -3514,32 +3588,36 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" s="5">
         <v>10</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="3">
         <v>75</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="M18" s="2">
         <v>9</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="39">
+        <v>8</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
@@ -3548,32 +3626,36 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D19" s="5">
         <v>7</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="3">
         <v>76</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="M19" s="2">
         <v>5</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="39">
+        <v>9</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
@@ -3582,32 +3664,36 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D20" s="5">
         <v>10</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="3">
         <v>77</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="2">
         <v>7</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="39">
+        <v>10</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
@@ -3616,32 +3702,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D21" s="5">
         <v>9</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="3">
         <v>78</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="M21" s="2">
         <v>6</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="39">
+        <v>10</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
@@ -3650,10 +3740,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="5">
         <v>7</v>
@@ -3665,17 +3755,19 @@
       <c r="I22" s="3">
         <v>79</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="2">
         <v>9</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="39">
+        <v>10</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
@@ -3684,32 +3776,36 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D23" s="5">
         <v>7</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="3">
         <v>80</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="M23" s="2">
         <v>9</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="39">
+        <v>10</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
@@ -3718,32 +3814,36 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="52">
+        <v>6</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="3">
         <v>81</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="2">
         <v>5</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="39">
+        <v>10</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
@@ -3752,32 +3852,36 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="3">
         <v>82</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="49"/>
+      <c r="L25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="M25" s="2">
         <v>10</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="39">
+        <v>10</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
@@ -3786,32 +3890,36 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D26" s="5">
         <v>6</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="3">
         <v>83</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="2">
         <v>9</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="39">
+        <v>10</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
@@ -3820,32 +3928,36 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D27" s="5">
         <v>6</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="3">
         <v>84</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="M27" s="2">
         <v>9</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="39">
+        <v>6</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
@@ -3854,32 +3966,36 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="D28" s="5">
         <v>8</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="3">
         <v>85</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="M28" s="2">
         <v>10</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="39">
+        <v>10</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
@@ -3888,30 +4004,36 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="3">
         <v>86</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="49"/>
+      <c r="L29" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="M29" s="2">
         <v>9</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="39">
+        <v>10</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
@@ -3920,32 +4042,36 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D30" s="5">
         <v>7</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>10</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="3">
         <v>87</v>
       </c>
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="M30" s="2">
         <v>7</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="39">
+        <v>10</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
@@ -3954,32 +4080,36 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="D31" s="5">
         <v>10</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="3">
         <v>88</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="M31" s="2">
         <v>8</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="39">
+        <v>10</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
@@ -3988,32 +4118,36 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="D32" s="5">
         <v>9</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>10</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="3">
         <v>89</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="M32" s="2">
         <v>9</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="39">
+        <v>10</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
@@ -4022,32 +4156,36 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>10</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="3">
         <v>90</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="M33" s="2">
         <v>10</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="39">
+        <v>10</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
@@ -4056,32 +4194,36 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="D34" s="5">
         <v>7</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <v>10</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="3">
         <v>91</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="49"/>
+      <c r="L34" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="M34" s="2">
         <v>9</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="39">
+        <v>10</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
@@ -4090,30 +4232,32 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="5">
         <v>8</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>10</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="3">
         <v>92</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="49"/>
+      <c r="L35" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="7"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
@@ -4122,32 +4266,36 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D36" s="5">
         <v>7</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5">
+        <v>10</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="3">
         <v>93</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="49"/>
+      <c r="L36" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="M36" s="2">
         <v>9</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="39">
+        <v>10</v>
+      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
@@ -4156,32 +4304,36 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="D37" s="5">
         <v>10</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5">
+        <v>10</v>
+      </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="3">
         <v>94</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="M37" s="2">
         <v>8</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="39">
+        <v>10</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
     </row>
@@ -4190,32 +4342,36 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D38" s="5">
         <v>9</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5">
+        <v>10</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="3">
         <v>95</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" s="49"/>
+      <c r="L38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="M38" s="2">
         <v>10</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="39">
+        <v>10</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
     </row>
@@ -4224,32 +4380,36 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="D39" s="5">
         <v>9</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5">
+        <v>10</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="3">
         <v>96</v>
       </c>
-      <c r="J39" s="48" t="s">
+      <c r="J39" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="K39" s="48"/>
-      <c r="L39" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="M39" s="2">
         <v>8</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="39">
+        <v>10</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
     </row>
@@ -4258,32 +4418,36 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D40" s="5">
         <v>9</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="3">
         <v>97</v>
       </c>
-      <c r="J40" s="48" t="s">
+      <c r="J40" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="M40" s="2">
         <v>8</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="39">
+        <v>8.5</v>
+      </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
     </row>
@@ -4292,32 +4456,36 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D41" s="5">
         <v>8</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5">
+        <v>10</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="3">
         <v>98</v>
       </c>
-      <c r="J41" s="48" t="s">
+      <c r="J41" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="49"/>
+      <c r="L41" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="M41" s="2">
         <v>6</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="39">
+        <v>10</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
@@ -4326,32 +4494,36 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D42" s="5">
         <v>9</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5">
+        <v>10</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3">
         <v>99</v>
       </c>
-      <c r="J42" s="48" t="s">
+      <c r="J42" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="49"/>
+      <c r="L42" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="M42" s="2">
         <v>8</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="39">
+        <v>10</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
@@ -4360,32 +4532,36 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>10</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" s="49"/>
+      <c r="L43" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="M43" s="2">
         <v>9</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="39">
+        <v>10</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
@@ -4394,32 +4570,36 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D44" s="5">
         <v>7</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>10</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
       <c r="I44" s="3">
         <v>101</v>
       </c>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="K44" s="49"/>
+      <c r="L44" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="M44" s="2">
         <v>8</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="39">
+        <v>10</v>
+      </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
@@ -4428,32 +4608,36 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D45" s="5">
         <v>9</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5">
+        <v>9</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3">
         <v>102</v>
       </c>
-      <c r="J45" s="48" t="s">
+      <c r="J45" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="M45" s="2">
         <v>9</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="39">
+        <v>10</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
     </row>
@@ -4462,32 +4646,36 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D46" s="5">
         <v>9</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5">
+        <v>10</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3">
         <v>103</v>
       </c>
-      <c r="J46" s="48" t="s">
+      <c r="J46" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="49"/>
+      <c r="L46" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="M46" s="2">
         <v>8</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="39">
+        <v>10</v>
+      </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
     </row>
@@ -4496,32 +4684,36 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D47" s="5">
         <v>10</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5">
+        <v>10</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="3">
         <v>104</v>
       </c>
-      <c r="J47" s="48" t="s">
+      <c r="J47" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="K47" s="49"/>
+      <c r="L47" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="M47" s="2">
         <v>8</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="39">
+        <v>9</v>
+      </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
     </row>
@@ -4530,32 +4722,34 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="D48" s="5">
         <v>9</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>9.5</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
       <c r="I48" s="3">
         <v>105</v>
       </c>
-      <c r="J48" s="48" t="s">
+      <c r="J48" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="L48" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="M48" s="2">
         <v>7</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="39"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
     </row>
@@ -4564,32 +4758,36 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="5">
         <v>9</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>10</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3">
         <v>106</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" s="49"/>
+      <c r="L49" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="M49" s="2">
         <v>10</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="39">
+        <v>10</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
     </row>
@@ -4598,32 +4796,36 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="D50" s="5">
         <v>8</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>7</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
       <c r="I50" s="3">
         <v>107</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="J50" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="K50" s="49"/>
+      <c r="L50" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="M50" s="2">
         <v>9</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="39">
+        <v>10</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
@@ -4632,10 +4834,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>261</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -4645,17 +4847,19 @@
       <c r="I51" s="3">
         <v>108</v>
       </c>
-      <c r="J51" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="K51" s="48"/>
+      <c r="J51" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51" s="49"/>
       <c r="L51" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M51" s="2">
         <v>9</v>
       </c>
-      <c r="N51" s="7"/>
+      <c r="N51" s="39">
+        <v>10</v>
+      </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
     </row>
@@ -4664,32 +4868,36 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" s="5">
         <v>7</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>10</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
       <c r="I52" s="3">
         <v>109</v>
       </c>
-      <c r="J52" s="48" t="s">
+      <c r="J52" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="48"/>
+      <c r="K52" s="49"/>
       <c r="L52" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M52" s="2">
         <v>7</v>
       </c>
-      <c r="N52" s="7"/>
+      <c r="N52" s="39">
+        <v>10</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
     </row>
@@ -4698,32 +4906,36 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D53" s="5">
         <v>9</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5">
+        <v>10</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="8"/>
       <c r="I53" s="3">
         <v>110</v>
       </c>
-      <c r="J53" s="48" t="s">
+      <c r="J53" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K53" s="48"/>
+      <c r="K53" s="49"/>
       <c r="L53" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M53" s="2">
         <v>5</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="39">
+        <v>9</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
     </row>
@@ -4732,32 +4944,36 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D54" s="5">
         <v>8</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5">
+        <v>10</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="8"/>
       <c r="I54" s="3">
         <v>111</v>
       </c>
-      <c r="J54" s="48" t="s">
+      <c r="J54" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="48"/>
+      <c r="K54" s="49"/>
       <c r="L54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="2">
         <v>9</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="39">
+        <v>10</v>
+      </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
     </row>
@@ -4766,32 +4982,36 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" s="5">
         <v>10</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="8"/>
       <c r="I55" s="3">
         <v>112</v>
       </c>
-      <c r="J55" s="48" t="s">
+      <c r="J55" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="48"/>
+      <c r="K55" s="49"/>
       <c r="L55" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M55" s="2">
         <v>9</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="39">
+        <v>9</v>
+      </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
     </row>
@@ -4800,32 +5020,36 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" s="5">
         <v>7</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5">
+        <v>9.5</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="8"/>
       <c r="I56" s="3">
         <v>113</v>
       </c>
-      <c r="J56" s="48" t="s">
+      <c r="J56" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="48"/>
+      <c r="K56" s="49"/>
       <c r="L56" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M56" s="2">
         <v>9</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="39">
+        <v>10</v>
+      </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
@@ -4834,32 +5058,36 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D57" s="5">
         <v>7</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5">
+        <v>7</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="8"/>
       <c r="I57" s="3">
         <v>114</v>
       </c>
-      <c r="J57" s="48" t="s">
+      <c r="J57" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="48"/>
+      <c r="K57" s="49"/>
       <c r="L57" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M57" s="2">
         <v>10</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="39">
+        <v>9.5</v>
+      </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
@@ -4868,32 +5096,36 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="5">
         <v>8</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5">
+        <v>8</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="8"/>
       <c r="I58" s="3">
         <v>115</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="48"/>
+      <c r="K58" s="49"/>
       <c r="L58" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M58" s="2">
         <v>10</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="39">
+        <v>10</v>
+      </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
     </row>
@@ -4902,32 +5134,36 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="5">
         <v>8</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>8</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="8"/>
       <c r="I59" s="3">
         <v>116</v>
       </c>
-      <c r="J59" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="48"/>
+      <c r="J59" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="49"/>
       <c r="L59" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M59" s="2">
         <v>10</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="39">
+        <v>10</v>
+      </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
     </row>
@@ -4936,32 +5172,36 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D60" s="5">
         <v>10</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5">
+        <v>10</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="8"/>
       <c r="I60" s="3">
         <v>117</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="48"/>
+      <c r="K60" s="49"/>
       <c r="L60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M60" s="2">
         <v>8</v>
       </c>
-      <c r="N60" s="7"/>
+      <c r="N60" s="39">
+        <v>10</v>
+      </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
     </row>
@@ -4970,30 +5210,32 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D61" s="5">
         <v>9</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>10</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="8"/>
       <c r="I61" s="3">
         <v>118</v>
       </c>
-      <c r="J61" s="48" t="s">
+      <c r="J61" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="5" t="s">
+      <c r="K61" s="49"/>
+      <c r="L61" s="53" t="s">
         <v>22</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="7"/>
+      <c r="N61" s="39"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
     </row>
@@ -5002,6 +5244,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="J60:K60"/>
@@ -5013,56 +5305,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airuisi\Documents\WeChat Files\uestcshihusen\FileStorage\File\2019-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E2BFF-16D1-4372-AC17-23A8DA5B9740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B0E75-2BAC-4EE4-9656-90350B4B2A10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>李少伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式识别作业统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,6 +1067,14 @@
   </si>
   <si>
     <t>彭军博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式识别作业得分统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1383,6 +1387,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1418,12 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,246 +1793,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="A1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O6" s="37"/>
       <c r="P6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2047,151 +2054,151 @@
     </row>
     <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="28"/>
       <c r="M11" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K12" s="28"/>
       <c r="M12" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="28"/>
       <c r="M13" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="32"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="28"/>
       <c r="M14" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2213,161 +2220,161 @@
     </row>
     <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="31"/>
       <c r="G19" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
@@ -2389,144 +2396,144 @@
     </row>
     <row r="21" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K22" s="28"/>
       <c r="M22" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K23" s="28"/>
       <c r="M23" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K24" s="28"/>
       <c r="M24" s="30" t="s">
@@ -2537,10 +2544,10 @@
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
@@ -2562,143 +2569,143 @@
     </row>
     <row r="26" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="29"/>
       <c r="G27" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="29"/>
       <c r="G28" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="18"/>
       <c r="J28" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="29"/>
       <c r="G29" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="K29" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="K29" s="28" t="s">
-        <v>298</v>
-      </c>
       <c r="M29" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="29"/>
     </row>
@@ -2721,25 +2728,25 @@
     </row>
     <row r="31" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="29"/>
       <c r="G31" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>316</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="20"/>
       <c r="K31" s="28"/>
       <c r="M31" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="18"/>
@@ -2747,23 +2754,23 @@
     </row>
     <row r="32" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="29"/>
       <c r="G32" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="20"/>
       <c r="K32" s="28"/>
       <c r="M32" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N32" s="16"/>
       <c r="O32" s="18"/>
@@ -2771,23 +2778,23 @@
     </row>
     <row r="33" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="29"/>
       <c r="G33" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="20"/>
       <c r="K33" s="28"/>
       <c r="M33" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="18"/>
@@ -2795,21 +2802,21 @@
     </row>
     <row r="34" spans="1:17" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="29"/>
       <c r="G34" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="20"/>
       <c r="K34" s="28"/>
       <c r="M34" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" s="18"/>
@@ -2833,78 +2840,78 @@
       <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="G36" s="42" t="s">
+      <c r="A36" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="G36" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+      <c r="M36" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="M36" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="44"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="47"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="44"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="47"/>
     </row>
     <row r="39" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="48"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="51"/>
     </row>
     <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C40" s="11"/>
@@ -2936,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2949,165 +2956,183 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="6" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="K2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="O2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="Q2" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="40">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3">
+        <v>60</v>
+      </c>
+      <c r="K3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="52">
+      <c r="L3" s="52"/>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3">
-        <v>60</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8</v>
-      </c>
-      <c r="N3" s="39">
-        <v>10</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="39">
+        <v>10</v>
+      </c>
+      <c r="P3" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>319</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>318</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3">
         <v>61</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="K4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="52"/>
+      <c r="M4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>8</v>
       </c>
-      <c r="N4" s="39">
-        <v>10</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="39">
+        <v>10</v>
+      </c>
+      <c r="P4" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
@@ -3115,75 +3140,87 @@
       <c r="E5" s="5">
         <v>7</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3">
         <v>62</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="K5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="2">
-        <v>9</v>
-      </c>
-      <c r="N5" s="39">
-        <v>10</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
+      <c r="O5" s="39">
+        <v>10</v>
+      </c>
+      <c r="P5" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3">
+        <v>63</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="3">
-        <v>63</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>6</v>
       </c>
-      <c r="N6" s="39">
-        <v>10</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="39">
+        <v>10</v>
+      </c>
+      <c r="P6" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="5">
         <v>8</v>
@@ -3191,187 +3228,217 @@
       <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3">
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3">
         <v>64</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="K7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>7</v>
       </c>
-      <c r="N7" s="39">
-        <v>10</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="39">
+        <v>10</v>
+      </c>
+      <c r="P7" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3">
         <v>65</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="K8" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>7</v>
       </c>
-      <c r="N8" s="39">
+      <c r="O8" s="39">
         <v>8</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3">
+        <v>66</v>
+      </c>
+      <c r="K9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="5">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3">
-        <v>66</v>
-      </c>
-      <c r="J9" s="49" t="s">
+      <c r="L9" s="52"/>
+      <c r="M9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="2">
-        <v>9</v>
-      </c>
-      <c r="N9" s="39">
-        <v>10</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>9</v>
+      </c>
+      <c r="O9" s="39">
+        <v>10</v>
+      </c>
+      <c r="P9" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3">
+        <v>67</v>
+      </c>
+      <c r="K10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3">
-        <v>67</v>
-      </c>
-      <c r="J10" s="49" t="s">
+      <c r="L10" s="52"/>
+      <c r="M10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
+      <c r="O10" s="39">
+        <v>10</v>
+      </c>
+      <c r="P10" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="2">
-        <v>9</v>
-      </c>
-      <c r="N10" s="39">
-        <v>10</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3">
+        <v>68</v>
+      </c>
+      <c r="K11" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3">
-        <v>68</v>
-      </c>
-      <c r="J11" s="49" t="s">
+      <c r="L11" s="52"/>
+      <c r="M11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="5" t="s">
+      <c r="N11" s="2">
+        <v>6</v>
+      </c>
+      <c r="O11" s="39">
+        <v>7</v>
+      </c>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="2">
-        <v>6</v>
-      </c>
-      <c r="N11" s="39">
-        <v>7</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="5">
         <v>8</v>
@@ -3379,71 +3446,81 @@
       <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3">
         <v>69</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="K12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3">
+        <v>70</v>
+      </c>
+      <c r="K13" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3">
-        <v>70</v>
-      </c>
-      <c r="J13" s="49" t="s">
+      <c r="L13" s="52"/>
+      <c r="M13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>7</v>
       </c>
-      <c r="N13" s="39">
+      <c r="O13" s="39">
         <v>8</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -3451,37 +3528,43 @@
       <c r="E14" s="5">
         <v>9</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3">
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3">
         <v>71</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="K14" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="2">
-        <v>10</v>
-      </c>
-      <c r="N14" s="39">
-        <v>9</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <v>10</v>
+      </c>
+      <c r="O14" s="39">
+        <v>9</v>
+      </c>
+      <c r="P14" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
@@ -3489,71 +3572,81 @@
       <c r="E15" s="5">
         <v>9.5</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3">
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3">
         <v>72</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="K15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>6</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="39"/>
+      <c r="P15" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3">
+        <v>73</v>
+      </c>
+      <c r="K16" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="5">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3">
-        <v>73</v>
-      </c>
-      <c r="J16" s="49" t="s">
+      <c r="L16" s="52"/>
+      <c r="M16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>7</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="39"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="5">
         <v>10</v>
@@ -3563,73 +3656,83 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3">
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3">
         <v>74</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="K17" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="52"/>
+      <c r="M17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>6</v>
       </c>
-      <c r="N17" s="39">
-        <v>10</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="39">
+        <v>10</v>
+      </c>
+      <c r="P17" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="3">
+        <v>75</v>
+      </c>
+      <c r="K18" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3">
-        <v>75</v>
-      </c>
-      <c r="J18" s="49" t="s">
+      <c r="L18" s="52"/>
+      <c r="M18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9</v>
-      </c>
-      <c r="N18" s="39">
+      <c r="N18" s="2">
+        <v>9</v>
+      </c>
+      <c r="O18" s="39">
         <v>8</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D19" s="5">
         <v>7</v>
@@ -3639,111 +3742,127 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3">
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3">
         <v>76</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="K19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>5</v>
       </c>
-      <c r="N19" s="39">
-        <v>9</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="39">
+        <v>9</v>
+      </c>
+      <c r="P19" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="3">
+        <v>77</v>
+      </c>
+      <c r="K20" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="5">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="3">
-        <v>77</v>
-      </c>
-      <c r="J20" s="49" t="s">
+      <c r="L20" s="52"/>
+      <c r="M20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>7</v>
       </c>
-      <c r="N20" s="39">
-        <v>10</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="39">
+        <v>10</v>
+      </c>
+      <c r="P20" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3">
+        <v>78</v>
+      </c>
+      <c r="K21" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="5">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="3">
-        <v>78</v>
-      </c>
-      <c r="J21" s="49" t="s">
+      <c r="L21" s="52"/>
+      <c r="M21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>6</v>
       </c>
-      <c r="N21" s="39">
-        <v>10</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="39">
+        <v>10</v>
+      </c>
+      <c r="P21" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="D22" s="5">
         <v>7</v>
@@ -3751,35 +3870,39 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="3">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3">
         <v>79</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="K22" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="52"/>
+      <c r="M22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="2">
-        <v>9</v>
-      </c>
-      <c r="N22" s="39">
-        <v>10</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>9</v>
+      </c>
+      <c r="O22" s="39">
+        <v>10</v>
+      </c>
+      <c r="P22" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D23" s="5">
         <v>7</v>
@@ -3787,75 +3910,85 @@
       <c r="E23" s="5">
         <v>10</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="3">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3">
         <v>80</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="K23" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="52"/>
+      <c r="M23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="2">
-        <v>9</v>
-      </c>
-      <c r="N23" s="39">
-        <v>10</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>9</v>
+      </c>
+      <c r="O23" s="39">
+        <v>10</v>
+      </c>
+      <c r="P23" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="40">
         <v>6</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="3">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="3">
         <v>81</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="K24" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>5</v>
       </c>
-      <c r="N24" s="39">
-        <v>10</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="39">
+        <v>10</v>
+      </c>
+      <c r="P24" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="5">
         <v>6</v>
@@ -3863,37 +3996,43 @@
       <c r="E25" s="5">
         <v>10</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="3">
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3">
         <v>82</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="K25" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="M25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="2">
-        <v>10</v>
-      </c>
-      <c r="N25" s="39">
-        <v>10</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <v>10</v>
+      </c>
+      <c r="O25" s="39">
+        <v>10</v>
+      </c>
+      <c r="P25" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="5">
         <v>6</v>
@@ -3901,37 +4040,41 @@
       <c r="E26" s="5">
         <v>10</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="3">
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3">
         <v>83</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="K26" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="2">
-        <v>9</v>
-      </c>
-      <c r="N26" s="39">
-        <v>10</v>
-      </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <v>9</v>
+      </c>
+      <c r="O26" s="39">
+        <v>10</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="5">
         <v>6</v>
@@ -3939,37 +4082,41 @@
       <c r="E27" s="5">
         <v>10</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="3">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="3">
         <v>84</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="K27" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="52"/>
+      <c r="M27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="2">
-        <v>9</v>
-      </c>
-      <c r="N27" s="39">
+      <c r="N27" s="2">
+        <v>9</v>
+      </c>
+      <c r="O27" s="39">
         <v>6</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D28" s="5">
         <v>8</v>
@@ -3977,37 +4124,43 @@
       <c r="E28" s="5">
         <v>10</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>10</v>
+      </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="3">
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="3">
         <v>85</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="K28" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="52"/>
+      <c r="M28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="2">
-        <v>10</v>
-      </c>
-      <c r="N28" s="39">
-        <v>10</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>10</v>
+      </c>
+      <c r="O28" s="39">
+        <v>10</v>
+      </c>
+      <c r="P28" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D29" s="5">
         <v>8</v>
@@ -4017,35 +4170,39 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="3">
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="3">
         <v>86</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="K29" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29" s="2">
-        <v>9</v>
-      </c>
-      <c r="N29" s="39">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>9</v>
+      </c>
+      <c r="O29" s="39">
+        <v>10</v>
+      </c>
+      <c r="P29" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="5">
         <v>7</v>
@@ -4053,113 +4210,129 @@
       <c r="E30" s="5">
         <v>10</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5">
+        <v>9</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="3">
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3">
         <v>87</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="K30" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="52"/>
+      <c r="M30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>7</v>
       </c>
-      <c r="N30" s="39">
-        <v>10</v>
-      </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="39">
+        <v>10</v>
+      </c>
+      <c r="P30" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3">
+        <v>88</v>
+      </c>
+      <c r="K31" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="3">
-        <v>88</v>
-      </c>
-      <c r="J31" s="49" t="s">
+      <c r="L31" s="52"/>
+      <c r="M31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="49"/>
-      <c r="L31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>8</v>
       </c>
-      <c r="N31" s="39">
-        <v>10</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="39">
+        <v>10</v>
+      </c>
+      <c r="P31" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3">
+        <v>89</v>
+      </c>
+      <c r="K32" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="5">
-        <v>9</v>
-      </c>
-      <c r="E32" s="5">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="3">
-        <v>89</v>
-      </c>
-      <c r="J32" s="49" t="s">
+      <c r="L32" s="52"/>
+      <c r="M32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="2">
-        <v>9</v>
-      </c>
-      <c r="N32" s="39">
-        <v>10</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>9</v>
+      </c>
+      <c r="O32" s="39">
+        <v>10</v>
+      </c>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -4167,37 +4340,41 @@
       <c r="E33" s="5">
         <v>10</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5">
+        <v>10</v>
+      </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="3">
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3">
         <v>90</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="K33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="52"/>
+      <c r="M33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" s="2">
-        <v>10</v>
-      </c>
-      <c r="N33" s="39">
-        <v>10</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" s="39">
+        <v>10</v>
+      </c>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D34" s="5">
         <v>7</v>
@@ -4205,37 +4382,41 @@
       <c r="E34" s="5">
         <v>10</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5">
+        <v>10</v>
+      </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="3">
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3">
         <v>91</v>
       </c>
-      <c r="J34" s="49" t="s">
+      <c r="K34" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="52"/>
+      <c r="M34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" s="2">
-        <v>9</v>
-      </c>
-      <c r="N34" s="39">
-        <v>10</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>9</v>
+      </c>
+      <c r="O34" s="39">
+        <v>10</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D35" s="5">
         <v>8</v>
@@ -4243,33 +4424,39 @@
       <c r="E35" s="5">
         <v>10</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="3">
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="3">
         <v>92</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="K35" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="52"/>
+      <c r="M35" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D36" s="5">
         <v>7</v>
@@ -4277,189 +4464,219 @@
       <c r="E36" s="5">
         <v>10</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5">
+        <v>10</v>
+      </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="3">
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="3">
         <v>93</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="K36" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="L36" s="52"/>
+      <c r="M36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M36" s="2">
-        <v>9</v>
-      </c>
-      <c r="N36" s="39">
-        <v>10</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>9</v>
+      </c>
+      <c r="O36" s="39">
+        <v>10</v>
+      </c>
+      <c r="P36" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="3">
+        <v>94</v>
+      </c>
+      <c r="K37" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="5">
-        <v>10</v>
-      </c>
-      <c r="E37" s="5">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="3">
-        <v>94</v>
-      </c>
-      <c r="J37" s="49" t="s">
+      <c r="L37" s="52"/>
+      <c r="M37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>8</v>
       </c>
-      <c r="N37" s="39">
-        <v>10</v>
-      </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="39">
+        <v>10</v>
+      </c>
+      <c r="P37" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="3">
+        <v>95</v>
+      </c>
+      <c r="K38" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="5">
-        <v>9</v>
-      </c>
-      <c r="E38" s="5">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="3">
-        <v>95</v>
-      </c>
-      <c r="J38" s="49" t="s">
+      <c r="L38" s="52"/>
+      <c r="M38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="2">
-        <v>10</v>
-      </c>
-      <c r="N38" s="39">
-        <v>10</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>10</v>
+      </c>
+      <c r="O38" s="39">
+        <v>10</v>
+      </c>
+      <c r="P38" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="3">
+        <v>96</v>
+      </c>
+      <c r="K39" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="5">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="3">
-        <v>96</v>
-      </c>
-      <c r="J39" s="49" t="s">
+      <c r="L39" s="52"/>
+      <c r="M39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <v>8</v>
       </c>
-      <c r="N39" s="39">
-        <v>10</v>
-      </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="39">
+        <v>10</v>
+      </c>
+      <c r="P39" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5">
+        <v>10</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="3">
+        <v>97</v>
+      </c>
+      <c r="K40" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="5">
-        <v>9</v>
-      </c>
-      <c r="E40" s="5">
-        <v>10</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="3">
-        <v>97</v>
-      </c>
-      <c r="J40" s="49" t="s">
+      <c r="L40" s="52"/>
+      <c r="M40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <v>8</v>
       </c>
-      <c r="N40" s="39">
+      <c r="O40" s="39">
         <v>8.5</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D41" s="5">
         <v>8</v>
@@ -4467,75 +4684,87 @@
       <c r="E41" s="5">
         <v>10</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5">
+        <v>10</v>
+      </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="3">
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="3">
         <v>98</v>
       </c>
-      <c r="J41" s="49" t="s">
+      <c r="K41" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" s="52"/>
+      <c r="M41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>6</v>
       </c>
-      <c r="N41" s="39">
-        <v>10</v>
-      </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="42" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="39">
+        <v>10</v>
+      </c>
+      <c r="P41" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="3">
+        <v>99</v>
+      </c>
+      <c r="K42" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="5">
-        <v>9</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="3">
-        <v>99</v>
-      </c>
-      <c r="J42" s="49" t="s">
+      <c r="L42" s="52"/>
+      <c r="M42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K42" s="49"/>
-      <c r="L42" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>8</v>
       </c>
-      <c r="N42" s="39">
-        <v>10</v>
-      </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="39">
+        <v>10</v>
+      </c>
+      <c r="P42" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
@@ -4545,35 +4774,39 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="3">
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="K43" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" s="52"/>
+      <c r="M43" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K43" s="49"/>
-      <c r="L43" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M43" s="2">
-        <v>9</v>
-      </c>
-      <c r="N43" s="39">
-        <v>10</v>
-      </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="2">
+        <v>9</v>
+      </c>
+      <c r="O43" s="39">
+        <v>10</v>
+      </c>
+      <c r="P43" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D44" s="5">
         <v>7</v>
@@ -4581,151 +4814,175 @@
       <c r="E44" s="5">
         <v>10</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <v>10</v>
+      </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="3">
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="3">
         <v>101</v>
       </c>
-      <c r="J44" s="49" t="s">
+      <c r="K44" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="52"/>
+      <c r="M44" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K44" s="49"/>
-      <c r="L44" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>8</v>
       </c>
-      <c r="N44" s="39">
-        <v>10</v>
-      </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="39">
+        <v>10</v>
+      </c>
+      <c r="P44" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="3">
+        <v>102</v>
+      </c>
+      <c r="K45" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="5">
-        <v>9</v>
-      </c>
-      <c r="E45" s="5">
-        <v>9</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="3">
-        <v>102</v>
-      </c>
-      <c r="J45" s="49" t="s">
+      <c r="L45" s="52"/>
+      <c r="M45" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M45" s="2">
-        <v>9</v>
-      </c>
-      <c r="N45" s="39">
-        <v>10</v>
-      </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N45" s="2">
+        <v>9</v>
+      </c>
+      <c r="O45" s="39">
+        <v>10</v>
+      </c>
+      <c r="P45" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5">
+        <v>10</v>
+      </c>
+      <c r="F46" s="5">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="3">
+        <v>103</v>
+      </c>
+      <c r="K46" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="5">
-        <v>9</v>
-      </c>
-      <c r="E46" s="5">
-        <v>10</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="3">
-        <v>103</v>
-      </c>
-      <c r="J46" s="49" t="s">
+      <c r="L46" s="52"/>
+      <c r="M46" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="K46" s="49"/>
-      <c r="L46" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>8</v>
       </c>
-      <c r="N46" s="39">
-        <v>10</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="39">
+        <v>10</v>
+      </c>
+      <c r="P46" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="3">
+        <v>104</v>
+      </c>
+      <c r="K47" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="5">
-        <v>10</v>
-      </c>
-      <c r="E47" s="5">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="3">
-        <v>104</v>
-      </c>
-      <c r="J47" s="49" t="s">
+      <c r="L47" s="52"/>
+      <c r="M47" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K47" s="49"/>
-      <c r="L47" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>8</v>
       </c>
-      <c r="N47" s="39">
-        <v>9</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="39">
+        <v>9</v>
+      </c>
+      <c r="P47" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="D48" s="5">
         <v>9</v>
@@ -4733,73 +4990,83 @@
       <c r="E48" s="5">
         <v>9.5</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="3">
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="3">
         <v>105</v>
       </c>
-      <c r="J48" s="49" t="s">
+      <c r="K48" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="L48" s="52"/>
+      <c r="M48" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K48" s="49"/>
-      <c r="L48" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <v>7</v>
       </c>
-      <c r="N48" s="39"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="39"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="5">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="3">
+        <v>106</v>
+      </c>
+      <c r="K49" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="5">
-        <v>9</v>
-      </c>
-      <c r="E49" s="5">
-        <v>10</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="3">
-        <v>106</v>
-      </c>
-      <c r="J49" s="49" t="s">
+      <c r="L49" s="52"/>
+      <c r="M49" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="K49" s="49"/>
-      <c r="L49" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="M49" s="2">
-        <v>10</v>
-      </c>
-      <c r="N49" s="39">
-        <v>10</v>
-      </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>10</v>
+      </c>
+      <c r="O49" s="39">
+        <v>10</v>
+      </c>
+      <c r="P49" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D50" s="5">
         <v>8</v>
@@ -4809,69 +5076,77 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="3">
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="3">
         <v>107</v>
       </c>
-      <c r="J50" s="49" t="s">
+      <c r="K50" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="L50" s="52"/>
+      <c r="M50" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K50" s="49"/>
-      <c r="L50" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M50" s="2">
-        <v>9</v>
-      </c>
-      <c r="N50" s="39">
-        <v>10</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <v>9</v>
+      </c>
+      <c r="O50" s="39">
+        <v>10</v>
+      </c>
+      <c r="P50" s="42">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>261</v>
+        <v>212</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="3">
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="3">
         <v>108</v>
       </c>
-      <c r="J51" s="49" t="s">
+      <c r="K51" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" s="52"/>
+      <c r="M51" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K51" s="49"/>
-      <c r="L51" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M51" s="2">
-        <v>9</v>
-      </c>
-      <c r="N51" s="39">
-        <v>10</v>
-      </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <v>9</v>
+      </c>
+      <c r="O51" s="39">
+        <v>10</v>
+      </c>
+      <c r="P51" s="42">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="D52" s="5">
         <v>7</v>
@@ -4879,75 +5154,87 @@
       <c r="E52" s="5">
         <v>10</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5">
+        <v>10</v>
+      </c>
       <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="3">
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="3">
         <v>109</v>
       </c>
-      <c r="J52" s="49" t="s">
+      <c r="K52" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="L52" s="52"/>
+      <c r="M52" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N52" s="2">
         <v>7</v>
       </c>
-      <c r="N52" s="39">
-        <v>10</v>
-      </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="39">
+        <v>10</v>
+      </c>
+      <c r="P52" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="3">
+        <v>110</v>
+      </c>
+      <c r="K53" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" s="52"/>
+      <c r="M53" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="5">
-        <v>9</v>
-      </c>
-      <c r="E53" s="5">
-        <v>10</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="3">
-        <v>110</v>
-      </c>
-      <c r="J53" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K53" s="49"/>
-      <c r="L53" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>5</v>
       </c>
-      <c r="N53" s="39">
-        <v>9</v>
-      </c>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-    </row>
-    <row r="54" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="39">
+        <v>9</v>
+      </c>
+      <c r="P53" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="D54" s="5">
         <v>8</v>
@@ -4955,75 +5242,87 @@
       <c r="E54" s="5">
         <v>10</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5">
+        <v>10</v>
+      </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="3">
+      <c r="H54" s="5"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="3">
         <v>111</v>
       </c>
-      <c r="J54" s="49" t="s">
+      <c r="K54" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="52"/>
+      <c r="M54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M54" s="2">
-        <v>9</v>
-      </c>
-      <c r="N54" s="39">
-        <v>10</v>
-      </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <v>9</v>
+      </c>
+      <c r="O54" s="39">
+        <v>10</v>
+      </c>
+      <c r="P54" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="D55" s="5">
         <v>10</v>
       </c>
       <c r="E55" s="5">
         <v>10</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="5">
+        <v>10</v>
+      </c>
       <c r="G55" s="5"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="3">
+      <c r="H55" s="5"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="3">
         <v>112</v>
       </c>
-      <c r="J55" s="49" t="s">
+      <c r="K55" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="49"/>
-      <c r="L55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="2">
-        <v>9</v>
-      </c>
-      <c r="N55" s="39">
-        <v>9</v>
-      </c>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-    </row>
-    <row r="56" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="52"/>
+      <c r="M55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="2">
+        <v>9</v>
+      </c>
+      <c r="O55" s="39">
+        <v>9</v>
+      </c>
+      <c r="P55" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="7"/>
+    </row>
+    <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D56" s="5">
         <v>7</v>
@@ -5031,37 +5330,43 @@
       <c r="E56" s="5">
         <v>9.5</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5">
+        <v>9</v>
+      </c>
       <c r="G56" s="5"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="3">
+      <c r="H56" s="5"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="3">
         <v>113</v>
       </c>
-      <c r="J56" s="49" t="s">
+      <c r="K56" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="49"/>
-      <c r="L56" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="M56" s="2">
-        <v>9</v>
-      </c>
-      <c r="N56" s="39">
-        <v>10</v>
-      </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-    </row>
-    <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="52"/>
+      <c r="M56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N56" s="2">
+        <v>9</v>
+      </c>
+      <c r="O56" s="39">
+        <v>10</v>
+      </c>
+      <c r="P56" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D57" s="5">
         <v>7</v>
@@ -5071,35 +5376,39 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="3">
+      <c r="H57" s="5"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="3">
         <v>114</v>
       </c>
-      <c r="J57" s="49" t="s">
+      <c r="K57" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="49"/>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="52"/>
+      <c r="M57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M57" s="2">
-        <v>10</v>
-      </c>
-      <c r="N57" s="39">
+      <c r="N57" s="2">
+        <v>10</v>
+      </c>
+      <c r="O57" s="39">
         <v>9.5</v>
       </c>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-    </row>
-    <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="7"/>
+    </row>
+    <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="D58" s="5">
         <v>8</v>
@@ -5109,35 +5418,39 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="3">
+      <c r="H58" s="5"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="3">
         <v>115</v>
       </c>
-      <c r="J58" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="49"/>
-      <c r="L58" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M58" s="2">
-        <v>10</v>
-      </c>
-      <c r="N58" s="39">
-        <v>10</v>
-      </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-    </row>
-    <row r="59" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="52"/>
+      <c r="M58" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N58" s="2">
+        <v>10</v>
+      </c>
+      <c r="O58" s="39">
+        <v>10</v>
+      </c>
+      <c r="P58" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D59" s="5">
         <v>8</v>
@@ -5145,166 +5458,182 @@
       <c r="E59" s="5">
         <v>8</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="3">
+      <c r="H59" s="5"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="3">
         <v>116</v>
       </c>
-      <c r="J59" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="49"/>
-      <c r="L59" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M59" s="2">
-        <v>10</v>
-      </c>
-      <c r="N59" s="39">
-        <v>10</v>
-      </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-    </row>
-    <row r="60" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="52"/>
+      <c r="M59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N59" s="2">
+        <v>10</v>
+      </c>
+      <c r="O59" s="39">
+        <v>10</v>
+      </c>
+      <c r="P59" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="7"/>
+    </row>
+    <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="D60" s="5">
         <v>10</v>
       </c>
       <c r="E60" s="5">
         <v>10</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5">
+        <v>10</v>
+      </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="3">
+      <c r="H60" s="5"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="3">
         <v>117</v>
       </c>
-      <c r="J60" s="49" t="s">
+      <c r="K60" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="49"/>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="52"/>
+      <c r="M60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M60" s="2">
+      <c r="N60" s="2">
         <v>8</v>
       </c>
-      <c r="N60" s="39">
-        <v>10</v>
-      </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="39">
+        <v>10</v>
+      </c>
+      <c r="P60" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="7"/>
+    </row>
+    <row r="61" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="D61" s="5">
         <v>9</v>
       </c>
       <c r="E61" s="5">
         <v>10</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5">
+        <v>10</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="3">
+      <c r="H61" s="5"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="3">
         <v>118</v>
       </c>
-      <c r="J61" s="49" t="s">
+      <c r="K61" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K61" s="49"/>
-      <c r="L61" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L62" s="1"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="7"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airuisi\Documents\WeChat Files\uestcshihusen\FileStorage\File\2019-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B0E75-2BAC-4EE4-9656-90350B4B2A10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB374E1-6B20-458C-9733-CE81CADD5A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="322">
   <si>
     <t>SL17010001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1075,6 +1075,10 @@
   </si>
   <si>
     <t>模式识别作业得分统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2946,7 +2950,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3049,10 +3053,10 @@
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -3061,7 +3065,9 @@
       <c r="F3" s="5">
         <v>8</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="3">
@@ -3083,7 +3089,9 @@
       <c r="P3" s="42">
         <v>10</v>
       </c>
-      <c r="Q3" s="42"/>
+      <c r="Q3" s="42">
+        <v>9</v>
+      </c>
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,7 +3129,9 @@
       <c r="P4" s="42">
         <v>8</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="42">
+        <v>8</v>
+      </c>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,7 +3153,9 @@
       <c r="F5" s="5">
         <v>7</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="3">
@@ -3165,7 +3177,9 @@
       <c r="P5" s="42">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="42">
+        <v>10</v>
+      </c>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,7 +3201,9 @@
       <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="3">
@@ -3197,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="52"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="40" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="2">
@@ -3231,7 +3247,9 @@
       <c r="F7" s="5">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="3">
@@ -3253,7 +3271,9 @@
       <c r="P7" s="42">
         <v>9</v>
       </c>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="42">
+        <v>10</v>
+      </c>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,7 +3295,9 @@
       <c r="F8" s="5">
         <v>9</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="3">
@@ -3297,7 +3319,9 @@
       <c r="P8" s="42">
         <v>10</v>
       </c>
-      <c r="Q8" s="42"/>
+      <c r="Q8" s="42">
+        <v>10</v>
+      </c>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,7 +3343,9 @@
       <c r="F9" s="5">
         <v>10</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="3">
@@ -3341,7 +3367,9 @@
       <c r="P9" s="42">
         <v>10</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="42">
+        <v>10</v>
+      </c>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3363,7 +3391,9 @@
       <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="3">
@@ -3385,7 +3415,9 @@
       <c r="P10" s="42">
         <v>10</v>
       </c>
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="42">
+        <v>10</v>
+      </c>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,7 +3439,9 @@
       <c r="F11" s="5">
         <v>10</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="3">
@@ -3426,8 +3460,12 @@
       <c r="O11" s="39">
         <v>7</v>
       </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
+      <c r="P11" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>10</v>
+      </c>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3449,7 +3487,9 @@
       <c r="F12" s="5">
         <v>10</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="3">
@@ -3487,7 +3527,9 @@
       <c r="F13" s="5">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="3">
@@ -3509,7 +3551,9 @@
       <c r="P13" s="42">
         <v>10</v>
       </c>
-      <c r="Q13" s="42"/>
+      <c r="Q13" s="42">
+        <v>10</v>
+      </c>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,7 +3575,9 @@
       <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="3">
@@ -3553,7 +3599,9 @@
       <c r="P14" s="42">
         <v>10</v>
       </c>
-      <c r="Q14" s="42"/>
+      <c r="Q14" s="42">
+        <v>10</v>
+      </c>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3623,9 @@
       <c r="F15" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="3">
@@ -3595,7 +3645,9 @@
       <c r="P15" s="42">
         <v>10</v>
       </c>
-      <c r="Q15" s="42"/>
+      <c r="Q15" s="42">
+        <v>10</v>
+      </c>
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3669,9 @@
       <c r="F16" s="5">
         <v>9</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="3">
@@ -3631,11 +3685,17 @@
         <v>76</v>
       </c>
       <c r="N16" s="2">
-        <v>7</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="O16" s="39">
+        <v>10</v>
+      </c>
+      <c r="P16" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>10</v>
+      </c>
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3654,8 +3714,12 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="3">
@@ -3677,7 +3741,9 @@
       <c r="P17" s="42">
         <v>10</v>
       </c>
-      <c r="Q17" s="42"/>
+      <c r="Q17" s="42">
+        <v>10</v>
+      </c>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3699,7 +3765,9 @@
       <c r="F18" s="5">
         <v>10</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="3">
@@ -3721,7 +3789,9 @@
       <c r="P18" s="42">
         <v>10</v>
       </c>
-      <c r="Q18" s="42"/>
+      <c r="Q18" s="42">
+        <v>10</v>
+      </c>
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,8 +3810,12 @@
       <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
       <c r="J19" s="3">
@@ -3763,7 +3837,9 @@
       <c r="P19" s="42">
         <v>10</v>
       </c>
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="42">
+        <v>10</v>
+      </c>
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,7 +3861,9 @@
       <c r="F20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>9</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="3">
@@ -3795,7 +3873,7 @@
         <v>91</v>
       </c>
       <c r="L20" s="52"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="40" t="s">
         <v>92</v>
       </c>
       <c r="N20" s="2">
@@ -3829,7 +3907,9 @@
       <c r="F21" s="5">
         <v>9</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5">
+        <v>10</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="3">
@@ -3851,7 +3931,9 @@
       <c r="P21" s="42">
         <v>10</v>
       </c>
-      <c r="Q21" s="42"/>
+      <c r="Q21" s="42">
+        <v>10</v>
+      </c>
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,9 +3949,15 @@
       <c r="D22" s="5">
         <v>7</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="3">
@@ -3891,7 +3979,9 @@
       <c r="P22" s="42">
         <v>10</v>
       </c>
-      <c r="Q22" s="42"/>
+      <c r="Q22" s="42">
+        <v>10</v>
+      </c>
       <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,7 +4003,9 @@
       <c r="F23" s="5">
         <v>10</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
       <c r="J23" s="3">
@@ -3935,7 +4027,9 @@
       <c r="P23" s="42">
         <v>10</v>
       </c>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="42">
+        <v>10</v>
+      </c>
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,7 +4039,7 @@
       <c r="B24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="5">
@@ -3977,7 +4071,9 @@
       <c r="P24" s="42">
         <v>10</v>
       </c>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="42">
+        <v>10</v>
+      </c>
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,7 +4095,9 @@
       <c r="F25" s="5">
         <v>10</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5">
+        <v>8</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
       <c r="J25" s="3">
@@ -4021,7 +4119,9 @@
       <c r="P25" s="42">
         <v>10</v>
       </c>
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="42">
+        <v>10</v>
+      </c>
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,7 +4143,9 @@
       <c r="F26" s="5">
         <v>10</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="3">
@@ -4062,8 +4164,12 @@
       <c r="O26" s="39">
         <v>10</v>
       </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="P26" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="42">
+        <v>9</v>
+      </c>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4085,7 +4191,9 @@
       <c r="F27" s="5">
         <v>10</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="3">
@@ -4104,8 +4212,12 @@
       <c r="O27" s="39">
         <v>6</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="P27" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>10</v>
+      </c>
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4239,9 @@
       <c r="F28" s="5">
         <v>10</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5">
+        <v>10</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="3">
@@ -4149,7 +4263,9 @@
       <c r="P28" s="42">
         <v>9</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="42">
+        <v>10</v>
+      </c>
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,8 +4284,12 @@
       <c r="E29" s="5">
         <v>7</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
       <c r="J29" s="3">
@@ -4191,7 +4311,9 @@
       <c r="P29" s="42">
         <v>10</v>
       </c>
-      <c r="Q29" s="42"/>
+      <c r="Q29" s="42">
+        <v>10</v>
+      </c>
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4213,7 +4335,9 @@
       <c r="F30" s="5">
         <v>9</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5">
+        <v>10</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
       <c r="J30" s="3">
@@ -4235,7 +4359,9 @@
       <c r="P30" s="42">
         <v>10</v>
       </c>
-      <c r="Q30" s="42"/>
+      <c r="Q30" s="42">
+        <v>10</v>
+      </c>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,7 +4383,9 @@
       <c r="F31" s="5">
         <v>10</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5">
+        <v>9</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
       <c r="J31" s="3">
@@ -4279,7 +4407,9 @@
       <c r="P31" s="42">
         <v>10</v>
       </c>
-      <c r="Q31" s="42"/>
+      <c r="Q31" s="42">
+        <v>10</v>
+      </c>
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4301,7 +4431,9 @@
       <c r="F32" s="5">
         <v>10</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="3">
@@ -4320,8 +4452,12 @@
       <c r="O32" s="39">
         <v>10</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="P32" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>10</v>
+      </c>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,7 +4479,9 @@
       <c r="F33" s="5">
         <v>10</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5">
+        <v>8</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="3">
@@ -4362,8 +4500,12 @@
       <c r="O33" s="39">
         <v>10</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
+      <c r="P33" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>10</v>
+      </c>
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4385,7 +4527,9 @@
       <c r="F34" s="5">
         <v>10</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="3">
@@ -4404,8 +4548,12 @@
       <c r="O34" s="39">
         <v>10</v>
       </c>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
+      <c r="P34" s="42">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>10</v>
+      </c>
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,7 +4575,9 @@
       <c r="F35" s="5">
         <v>10</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="3">
@@ -4467,7 +4617,9 @@
       <c r="F36" s="5">
         <v>10</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="3">
@@ -4489,7 +4641,9 @@
       <c r="P36" s="42">
         <v>10</v>
       </c>
-      <c r="Q36" s="42"/>
+      <c r="Q36" s="42">
+        <v>10</v>
+      </c>
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,7 +4653,7 @@
       <c r="B37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="40" t="s">
         <v>158</v>
       </c>
       <c r="D37" s="5">
@@ -4533,7 +4687,9 @@
       <c r="P37" s="42">
         <v>10</v>
       </c>
-      <c r="Q37" s="42"/>
+      <c r="Q37" s="42">
+        <v>10</v>
+      </c>
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4555,7 +4711,9 @@
       <c r="F38" s="5">
         <v>10</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5">
+        <v>10</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="3">
@@ -4577,7 +4735,9 @@
       <c r="P38" s="42">
         <v>10</v>
       </c>
-      <c r="Q38" s="42"/>
+      <c r="Q38" s="42">
+        <v>10</v>
+      </c>
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,7 +4759,9 @@
       <c r="F39" s="5">
         <v>10</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5">
+        <v>10</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="3">
@@ -4621,7 +4783,9 @@
       <c r="P39" s="42">
         <v>10</v>
       </c>
-      <c r="Q39" s="42"/>
+      <c r="Q39" s="42">
+        <v>10</v>
+      </c>
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4643,7 +4807,9 @@
       <c r="F40" s="5">
         <v>10</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5">
+        <v>10</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="3">
@@ -4665,7 +4831,9 @@
       <c r="P40" s="42">
         <v>10</v>
       </c>
-      <c r="Q40" s="42"/>
+      <c r="Q40" s="42">
+        <v>10</v>
+      </c>
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4687,7 +4855,9 @@
       <c r="F41" s="5">
         <v>10</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5">
+        <v>10</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
       <c r="J41" s="3">
@@ -4709,7 +4879,9 @@
       <c r="P41" s="42">
         <v>8</v>
       </c>
-      <c r="Q41" s="42"/>
+      <c r="Q41" s="42">
+        <v>7</v>
+      </c>
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,7 +4903,9 @@
       <c r="F42" s="5">
         <v>10</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
       <c r="J42" s="3">
@@ -4753,7 +4927,9 @@
       <c r="P42" s="42">
         <v>8</v>
       </c>
-      <c r="Q42" s="42"/>
+      <c r="Q42" s="42">
+        <v>10</v>
+      </c>
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4763,7 +4939,7 @@
       <c r="B43" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="40" t="s">
         <v>182</v>
       </c>
       <c r="D43" s="5">
@@ -4772,8 +4948,12 @@
       <c r="E43" s="5">
         <v>10</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="F43" s="5">
+        <v>10</v>
+      </c>
+      <c r="G43" s="5">
+        <v>10</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
       <c r="J43" s="3">
@@ -4795,7 +4975,9 @@
       <c r="P43" s="42">
         <v>10</v>
       </c>
-      <c r="Q43" s="42"/>
+      <c r="Q43" s="42">
+        <v>9</v>
+      </c>
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4817,7 +4999,9 @@
       <c r="F44" s="5">
         <v>10</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5">
+        <v>10</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
       <c r="J44" s="3">
@@ -4839,7 +5023,9 @@
       <c r="P44" s="42">
         <v>10</v>
       </c>
-      <c r="Q44" s="42"/>
+      <c r="Q44" s="42">
+        <v>10</v>
+      </c>
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,7 +5047,9 @@
       <c r="F45" s="5">
         <v>10</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5">
+        <v>10</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
       <c r="J45" s="3">
@@ -4883,7 +5071,9 @@
       <c r="P45" s="42">
         <v>10</v>
       </c>
-      <c r="Q45" s="42"/>
+      <c r="Q45" s="42">
+        <v>10</v>
+      </c>
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,7 +5095,9 @@
       <c r="F46" s="5">
         <v>10</v>
       </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
       <c r="J46" s="3">
@@ -4927,7 +5119,9 @@
       <c r="P46" s="42">
         <v>10</v>
       </c>
-      <c r="Q46" s="42"/>
+      <c r="Q46" s="42">
+        <v>10</v>
+      </c>
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4949,7 +5143,9 @@
       <c r="F47" s="5">
         <v>10</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5">
+        <v>10</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="3">
@@ -4971,7 +5167,9 @@
       <c r="P47" s="42">
         <v>10</v>
       </c>
-      <c r="Q47" s="42"/>
+      <c r="Q47" s="42">
+        <v>10</v>
+      </c>
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,7 +5179,7 @@
       <c r="B48" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="40" t="s">
         <v>202</v>
       </c>
       <c r="D48" s="5">
@@ -5003,7 +5201,7 @@
         <v>203</v>
       </c>
       <c r="L48" s="52"/>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="40" t="s">
         <v>204</v>
       </c>
       <c r="N48" s="2">
@@ -5033,7 +5231,9 @@
       <c r="F49" s="5">
         <v>10</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5">
+        <v>10</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
       <c r="J49" s="3">
@@ -5055,7 +5255,9 @@
       <c r="P49" s="42">
         <v>10</v>
       </c>
-      <c r="Q49" s="42"/>
+      <c r="Q49" s="42">
+        <v>10</v>
+      </c>
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5074,8 +5276,12 @@
       <c r="E50" s="5">
         <v>7</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5">
+        <v>7</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
       <c r="J50" s="3">
@@ -5097,7 +5303,9 @@
       <c r="P50" s="42">
         <v>7</v>
       </c>
-      <c r="Q50" s="42"/>
+      <c r="Q50" s="42">
+        <v>8</v>
+      </c>
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5107,13 +5315,21 @@
       <c r="B51" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="D51" s="40">
+        <v>6</v>
+      </c>
+      <c r="E51" s="40">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5">
+        <v>9</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
       <c r="J51" s="3">
@@ -5135,7 +5351,9 @@
       <c r="P51" s="42">
         <v>8</v>
       </c>
-      <c r="Q51" s="42"/>
+      <c r="Q51" s="42">
+        <v>10</v>
+      </c>
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,7 +5375,9 @@
       <c r="F52" s="5">
         <v>10</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5">
+        <v>10</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
       <c r="J52" s="3">
@@ -5179,7 +5399,9 @@
       <c r="P52" s="42">
         <v>10</v>
       </c>
-      <c r="Q52" s="42"/>
+      <c r="Q52" s="42">
+        <v>10</v>
+      </c>
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,7 +5423,9 @@
       <c r="F53" s="5">
         <v>10</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="5">
+        <v>9</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="8"/>
       <c r="J53" s="3">
@@ -5223,7 +5447,9 @@
       <c r="P53" s="42">
         <v>10</v>
       </c>
-      <c r="Q53" s="42"/>
+      <c r="Q53" s="42">
+        <v>9</v>
+      </c>
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,7 +5471,9 @@
       <c r="F54" s="5">
         <v>10</v>
       </c>
-      <c r="G54" s="5"/>
+      <c r="G54" s="5">
+        <v>10</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
       <c r="J54" s="3">
@@ -5267,7 +5495,9 @@
       <c r="P54" s="42">
         <v>10</v>
       </c>
-      <c r="Q54" s="42"/>
+      <c r="Q54" s="42">
+        <v>10</v>
+      </c>
       <c r="R54" s="7"/>
     </row>
     <row r="55" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,7 +5519,9 @@
       <c r="F55" s="5">
         <v>10</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5">
+        <v>10</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="8"/>
       <c r="J55" s="3">
@@ -5311,7 +5543,9 @@
       <c r="P55" s="42">
         <v>10</v>
       </c>
-      <c r="Q55" s="42"/>
+      <c r="Q55" s="42">
+        <v>10</v>
+      </c>
       <c r="R55" s="7"/>
     </row>
     <row r="56" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,7 +5567,9 @@
       <c r="F56" s="5">
         <v>9</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5">
+        <v>8</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
       <c r="J56" s="3">
@@ -5355,7 +5591,9 @@
       <c r="P56" s="42">
         <v>10</v>
       </c>
-      <c r="Q56" s="42"/>
+      <c r="Q56" s="42">
+        <v>10</v>
+      </c>
       <c r="R56" s="7"/>
     </row>
     <row r="57" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5374,8 +5612,12 @@
       <c r="E57" s="5">
         <v>7</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="F57" s="5">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="8"/>
       <c r="J57" s="3">
@@ -5397,7 +5639,9 @@
       <c r="P57" s="42">
         <v>10</v>
       </c>
-      <c r="Q57" s="42"/>
+      <c r="Q57" s="42">
+        <v>10</v>
+      </c>
       <c r="R57" s="7"/>
     </row>
     <row r="58" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,8 +5660,12 @@
       <c r="E58" s="5">
         <v>8</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="F58" s="5">
+        <v>9</v>
+      </c>
+      <c r="G58" s="5">
+        <v>9</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
       <c r="J58" s="3">
@@ -5439,7 +5687,9 @@
       <c r="P58" s="42">
         <v>9</v>
       </c>
-      <c r="Q58" s="42"/>
+      <c r="Q58" s="42">
+        <v>8</v>
+      </c>
       <c r="R58" s="7"/>
     </row>
     <row r="59" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5461,7 +5711,9 @@
       <c r="F59" s="5">
         <v>10</v>
       </c>
-      <c r="G59" s="5"/>
+      <c r="G59" s="5">
+        <v>10</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="8"/>
       <c r="J59" s="3">
@@ -5483,7 +5735,9 @@
       <c r="P59" s="42">
         <v>10</v>
       </c>
-      <c r="Q59" s="42"/>
+      <c r="Q59" s="42">
+        <v>10</v>
+      </c>
       <c r="R59" s="7"/>
     </row>
     <row r="60" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,7 +5759,9 @@
       <c r="F60" s="5">
         <v>10</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5">
+        <v>10</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="8"/>
       <c r="J60" s="3">
@@ -5527,7 +5783,9 @@
       <c r="P60" s="42">
         <v>10</v>
       </c>
-      <c r="Q60" s="42"/>
+      <c r="Q60" s="42">
+        <v>10</v>
+      </c>
       <c r="R60" s="7"/>
     </row>
     <row r="61" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5549,7 +5807,9 @@
       <c r="F61" s="5">
         <v>10</v>
       </c>
-      <c r="G61" s="5"/>
+      <c r="G61" s="5">
+        <v>10</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="8"/>
       <c r="J61" s="3">

--- a/pr/作业分组和成绩统计.xlsx
+++ b/pr/作业分组和成绩统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\husencd.github.io\pr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86170\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB374E1-6B20-458C-9733-CE81CADD5A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6598D917-26D8-4F24-8A19-773B6377A947}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2949,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3053,10 +3053,10 @@
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="40">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -3213,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="52"/>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="2">
@@ -3685,7 +3685,7 @@
         <v>76</v>
       </c>
       <c r="N16" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" s="39">
         <v>10</v>
@@ -3873,7 +3873,7 @@
         <v>91</v>
       </c>
       <c r="L20" s="52"/>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="5" t="s">
         <v>92</v>
       </c>
       <c r="N20" s="2">
@@ -3885,7 +3885,9 @@
       <c r="P20" s="42">
         <v>10</v>
       </c>
-      <c r="Q20" s="42"/>
+      <c r="Q20" s="42">
+        <v>6</v>
+      </c>
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,17 +4041,21 @@
       <c r="B24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="5">
         <v>9</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
         <v>6</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>6</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
       <c r="J24" s="3">
@@ -4210,7 +4216,7 @@
         <v>9</v>
       </c>
       <c r="O27" s="39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P27" s="42">
         <v>10</v>
@@ -4261,7 +4267,7 @@
         <v>10</v>
       </c>
       <c r="P28" s="42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="42">
         <v>10</v>
@@ -4333,7 +4339,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="5">
         <v>10</v>
@@ -4371,7 +4377,7 @@
       <c r="B31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="40" t="s">
         <v>134</v>
       </c>
       <c r="D31" s="5">
@@ -4665,7 +4671,9 @@
       <c r="F37" s="5">
         <v>10</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5">
+        <v>10</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="3">
@@ -5191,7 +5199,9 @@
       <c r="F48" s="5">
         <v>10</v>
       </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5">
+        <v>6</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
       <c r="J48" s="3">
@@ -5201,7 +5211,7 @@
         <v>203</v>
       </c>
       <c r="L48" s="52"/>
-      <c r="M48" s="40" t="s">
+      <c r="M48" s="5" t="s">
         <v>204</v>
       </c>
       <c r="N48" s="2">
@@ -5219,7 +5229,7 @@
       <c r="B49" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="5">
@@ -5833,56 +5843,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="K60:L60"/>
@@ -5894,6 +5854,56 @@
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
